--- a/TestData/StudentListForSingEC (1).xlsx
+++ b/TestData/StudentListForSingEC (1).xlsx
@@ -717,7 +717,7 @@
   <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AK6" sqref="AK6"/>
+      <selection activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestData/StudentListForSingEC (1).xlsx
+++ b/TestData/StudentListForSingEC (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="122">
   <si>
     <t>Father First Name</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>01-April-2023</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>222222</t>
   </si>
 </sst>
 </file>
@@ -714,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR6"/>
+  <dimension ref="A1:AS6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1"/>
+      <selection activeCell="AS3" sqref="AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -761,7 +767,7 @@
     <col min="42" max="42" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -894,8 +900,11 @@
       <c r="AR1" t="s">
         <v>71</v>
       </c>
+      <c r="AS1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1028,8 +1037,11 @@
       <c r="AR2" t="s">
         <v>72</v>
       </c>
+      <c r="AS2" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1163,7 +1175,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1297,7 +1309,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -1431,7 +1443,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>76</v>
       </c>

--- a/TestData/StudentListForSingEC (1).xlsx
+++ b/TestData/StudentListForSingEC (1).xlsx
@@ -24,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="122">
-  <si>
-    <t>Father First Name</t>
-  </si>
-  <si>
-    <t>Father Last Name</t>
-  </si>
-  <si>
-    <t>Father Email Address</t>
-  </si>
-  <si>
-    <t>Fatherh Mobile Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="122">
   <si>
     <t>Priority Parent Relation</t>
   </si>
@@ -125,27 +113,15 @@
     <t>abc@mother.com</t>
   </si>
   <si>
-    <t>MotherMobNum</t>
-  </si>
-  <si>
     <t>543234567</t>
   </si>
   <si>
-    <t>MotherHomeNum</t>
-  </si>
-  <si>
     <t>54324343</t>
   </si>
   <si>
     <t>MotherPhotoFile</t>
   </si>
   <si>
-    <t>MotherFirstName</t>
-  </si>
-  <si>
-    <t>MotherLastName</t>
-  </si>
-  <si>
     <t>Mother</t>
   </si>
   <si>
@@ -281,18 +257,6 @@
     <t>12345571</t>
   </si>
   <si>
-    <t>24-December-2023</t>
-  </si>
-  <si>
-    <t>24-December-2024</t>
-  </si>
-  <si>
-    <t>24-December-2025</t>
-  </si>
-  <si>
-    <t>24-December-2026</t>
-  </si>
-  <si>
     <t>NRIC004</t>
   </si>
   <si>
@@ -390,6 +354,42 @@
   </si>
   <si>
     <t>222222</t>
+  </si>
+  <si>
+    <t>Father/Mother First Name</t>
+  </si>
+  <si>
+    <t>Father/Mother Last Name</t>
+  </si>
+  <si>
+    <t>Father/Mother Email Address</t>
+  </si>
+  <si>
+    <t>Fatherh/Mother Mobile Number</t>
+  </si>
+  <si>
+    <t>Mother/FatherFirstName</t>
+  </si>
+  <si>
+    <t>Mother/FatherLastName</t>
+  </si>
+  <si>
+    <t>Mother/FatherMobNum</t>
+  </si>
+  <si>
+    <t>Mother/FatherHomeNum</t>
+  </si>
+  <si>
+    <t>222223</t>
+  </si>
+  <si>
+    <t>222224</t>
+  </si>
+  <si>
+    <t>222225</t>
+  </si>
+  <si>
+    <t>222226</t>
   </si>
 </sst>
 </file>
@@ -723,7 +723,7 @@
   <dimension ref="A1:AS6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
+      <selection activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,812 +769,824 @@
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AG1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AJ1" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AK1" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO1" t="s">
         <v>61</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AP1" t="s">
         <v>62</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AQ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR1" t="s">
         <v>63</v>
       </c>
-      <c r="AM1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>71</v>
-      </c>
       <c r="AS1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
       <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="W2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE2" t="s">
         <v>20</v>
       </c>
-      <c r="X2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AF2" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>60</v>
-      </c>
       <c r="AI2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AL2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR2" t="s">
         <v>64</v>
       </c>
-      <c r="AM2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="AE3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="AF3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH3" t="s">
         <v>52</v>
       </c>
-      <c r="S3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="W3" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AI3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS3" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="AE4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH4" t="s">
         <v>52</v>
       </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" t="s">
-        <v>89</v>
-      </c>
-      <c r="S4" t="s">
-        <v>17</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="W4" t="s">
-        <v>20</v>
-      </c>
-      <c r="X4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="AI4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AR4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS4" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="s">
         <v>83</v>
       </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="AE5" t="s">
         <v>20</v>
       </c>
-      <c r="M5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>13</v>
-      </c>
-      <c r="R5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="W5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="AF5" t="s">
         <v>47</v>
       </c>
-      <c r="AB5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>55</v>
-      </c>
       <c r="AG5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AH5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AI5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AJ5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AL5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR5" t="s">
         <v>64</v>
       </c>
-      <c r="AM5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>72</v>
+      <c r="AS5" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" t="s">
         <v>20</v>
       </c>
-      <c r="M6" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P6" t="s">
-        <v>24</v>
-      </c>
       <c r="Q6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" t="s">
+        <v>83</v>
+      </c>
+      <c r="S6" t="s">
         <v>13</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="S6" t="s">
-        <v>17</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="AC6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE6" t="s">
         <v>20</v>
       </c>
-      <c r="X6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AF6" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AG6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AC6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="AL6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR6" t="s">
         <v>64</v>
       </c>
-      <c r="AM6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>72</v>
+      <c r="AS6" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
